--- a/Vinasa/Content/Files/MauDichVuKhac.xlsx
+++ b/Vinasa/Content/Files/MauDichVuKhac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366DC6DD-B7FA-4E6E-B762-F05EFBAF804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023E078-590D-49B8-814A-A385C98E03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{513D136C-96CF-4803-9ECC-C508B86760B0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Tên Công ty</t>
   </si>
   <si>
-    <t>Ngay Bắt Đầu Hợp Đồng</t>
-  </si>
-  <si>
-    <t>Ngày Hết Hạn Hợp Đồng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên sản phẩm/ Dịch vụ </t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t xml:space="preserve">Điện thoại </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghi chú </t>
   </si>
   <si>
@@ -98,6 +89,20 @@
   </si>
   <si>
     <t>manhnt@vinasa.org.vn</t>
+  </si>
+  <si>
+    <t>0937688958</t>
+  </si>
+  <si>
+    <t>Điện thoại (10 số)</t>
+  </si>
+  <si>
+    <t>Ngay Bắt Đầu Hợp Đồng
+Theo định dạng mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Ngày Hết Hạn Hợp Đồng
+Theo định dạng mm/dd/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -107,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +148,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,12 +180,8 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +192,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -503,108 +522,108 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3"/>
-    <col min="2" max="2" width="14.21875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="31.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.44140625" style="3"/>
+    <col min="1" max="1" width="12.44140625" style="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44114</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6">
+        <v>15000000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>12000000</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7">
-        <v>44114</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8">
-        <v>15000000</v>
-      </c>
-      <c r="H2" s="8">
-        <v>12000000</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3">
-        <v>937688958</v>
       </c>
     </row>
   </sheetData>
@@ -612,5 +631,6 @@
     <hyperlink ref="L2" r:id="rId1" xr:uid="{ECBEB31D-6865-4C1C-BF18-8953B271FA5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>